--- a/Dashboard1/MSexcelJtec/JtecBook1.xlsx
+++ b/Dashboard1/MSexcelJtec/JtecBook1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\JTEC-jig fuse\Dashboard1\MSexcelJtec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64BEBE6-56EC-4105-BB63-03E2F43B976A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39C09DA-C149-468B-9643-D6A65ECB350D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CFFE1A4-F0D5-4261-BC72-6194BE48C013}"/>
+    <workbookView xWindow="1284" yWindow="720" windowWidth="17280" windowHeight="9864" xr2:uid="{2CFFE1A4-F0D5-4261-BC72-6194BE48C013}"/>
   </bookViews>
   <sheets>
     <sheet name="JIGCODE" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -33,50 +33,96 @@
     <t>Mã jig</t>
   </si>
   <si>
-    <t>Ngày Nhập</t>
-  </si>
-  <si>
-    <t>31/05/2021</t>
-  </si>
-  <si>
-    <t>31/05/2022</t>
-  </si>
-  <si>
-    <t>31/05/2023</t>
-  </si>
-  <si>
-    <t>31/05/2024</t>
-  </si>
-  <si>
-    <t>31/05/2025</t>
-  </si>
-  <si>
-    <t>31/05/2026</t>
-  </si>
-  <si>
-    <t>31/05/2027</t>
-  </si>
-  <si>
-    <t>31/05/2028</t>
-  </si>
-  <si>
-    <t>31/05/2029</t>
-  </si>
-  <si>
-    <t>31/05/2030</t>
-  </si>
-  <si>
-    <t>31/05/2031</t>
-  </si>
-  <si>
-    <t>31/05/2032</t>
+    <t>Mã sản phẩm</t>
+  </si>
+  <si>
+    <t>0564264010-00</t>
+  </si>
+  <si>
+    <t>0564200644-00</t>
+  </si>
+  <si>
+    <t>Giá trị Led hiển thị</t>
+  </si>
+  <si>
+    <t>PF200-10000</t>
+  </si>
+  <si>
+    <t>PF200-15000</t>
+  </si>
+  <si>
+    <t>PF213-06000</t>
+  </si>
+  <si>
+    <t>0300650 (x2)
+0300700 (x1)</t>
+  </si>
+  <si>
+    <t>0300650 (x1)
+0300700 (x1)</t>
+  </si>
+  <si>
+    <t>0301460 (x2)
+0301480 (x2)</t>
+  </si>
+  <si>
+    <t>0301564 (x2)
+0301484 (x1)</t>
+  </si>
+  <si>
+    <t>71249681</t>
+  </si>
+  <si>
+    <t>23B0689162</t>
+  </si>
+  <si>
+    <t>23B0689163</t>
+  </si>
+  <si>
+    <t>23B0671174-05</t>
+  </si>
+  <si>
+    <t>23B0671175-01</t>
+  </si>
+  <si>
+    <t>23B0671175</t>
+  </si>
+  <si>
+    <t>11Y0656111</t>
+  </si>
+  <si>
+    <t>12Y0636111</t>
+  </si>
+  <si>
+    <t>11Y0656111-03</t>
+  </si>
+  <si>
+    <t>12Y0636111-04</t>
+  </si>
+  <si>
+    <t>11Y0656111-01</t>
+  </si>
+  <si>
+    <t>0694200186-07</t>
+  </si>
+  <si>
+    <t>0684200186-07</t>
+  </si>
+  <si>
+    <t>0564200657-01</t>
+  </si>
+  <si>
+    <t>MTA0301484</t>
+  </si>
+  <si>
+    <t>MTA0301564</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +136,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,17 +164,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,163 +514,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF90473-8882-48F9-8713-751294C8ACC6}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="61.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>12345698</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>123213213213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>12345698</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>232321321321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>12345698</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2132132132132110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>12345698</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>312341234124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>12345698</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <v>21412312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>12345698</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="2">
+        <v>21412312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>12345698</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>21412312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>12345698</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21412312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>12345698</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>21412312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>12345698</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>21412312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>12345698</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>21412312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>12345698</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>21412312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>21412312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>21412312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>564200479</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>21412312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>21412312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <v>21412312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
+        <v>21412312</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dashboard1/MSexcelJtec/JtecBook1.xlsx
+++ b/Dashboard1/MSexcelJtec/JtecBook1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\JTEC-jig fuse\Dashboard1\MSexcelJtec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39C09DA-C149-468B-9643-D6A65ECB350D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50341B7-AAEC-4C5C-8017-FFB16BD13BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1284" yWindow="720" windowWidth="17280" windowHeight="9864" xr2:uid="{2CFFE1A4-F0D5-4261-BC72-6194BE48C013}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CFFE1A4-F0D5-4261-BC72-6194BE48C013}"/>
   </bookViews>
   <sheets>
     <sheet name="JIGCODE" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -42,9 +42,6 @@
     <t>0564200644-00</t>
   </si>
   <si>
-    <t>Giá trị Led hiển thị</t>
-  </si>
-  <si>
     <t>PF200-10000</t>
   </si>
   <si>
@@ -54,55 +51,18 @@
     <t>PF213-06000</t>
   </si>
   <si>
-    <t>0300650 (x2)
-0300700 (x1)</t>
-  </si>
-  <si>
-    <t>0300650 (x1)
-0300700 (x1)</t>
-  </si>
-  <si>
-    <t>0301460 (x2)
-0301480 (x2)</t>
-  </si>
-  <si>
-    <t>0301564 (x2)
-0301484 (x1)</t>
-  </si>
-  <si>
-    <t>71249681</t>
-  </si>
-  <si>
     <t>23B0689162</t>
   </si>
   <si>
     <t>23B0689163</t>
   </si>
   <si>
-    <t>23B0671174-05</t>
-  </si>
-  <si>
-    <t>23B0671175-01</t>
-  </si>
-  <si>
     <t>23B0671175</t>
   </si>
   <si>
-    <t>11Y0656111</t>
-  </si>
-  <si>
     <t>12Y0636111</t>
   </si>
   <si>
-    <t>11Y0656111-03</t>
-  </si>
-  <si>
-    <t>12Y0636111-04</t>
-  </si>
-  <si>
-    <t>11Y0656111-01</t>
-  </si>
-  <si>
     <t>0694200186-07</t>
   </si>
   <si>
@@ -112,10 +72,133 @@
     <t>0564200657-01</t>
   </si>
   <si>
-    <t>MTA0301484</t>
-  </si>
-  <si>
     <t>MTA0301564</t>
+  </si>
+  <si>
+    <t>Giá trị Led hiển thị cột 1</t>
+  </si>
+  <si>
+    <t>Giá trị Led hiển thị cột 2</t>
+  </si>
+  <si>
+    <t>Giá trị Led hiển thị cột 3</t>
+  </si>
+  <si>
+    <t>Giá trị Led hiển thị cột 4</t>
+  </si>
+  <si>
+    <t>4210645111D3-04</t>
+  </si>
+  <si>
+    <t>PF210-20000</t>
+  </si>
+  <si>
+    <t>00,00,00,10,10,10,05,10,10,00,05,20,20,00,00</t>
+  </si>
+  <si>
+    <t>00,00,30,10,15,30,10,15,30,30,15,30,00,00,00</t>
+  </si>
+  <si>
+    <t>PF230-10000</t>
+  </si>
+  <si>
+    <t>00,00,00,00,10,00,10,10,10,15,10,00,00,00,00</t>
+  </si>
+  <si>
+    <t>00,00,00,00,10,15,10,10,10,00,15,00,00,00,00</t>
+  </si>
+  <si>
+    <t>00,00,00,15,15,15,20,30,20,30,30,30,20,00,00</t>
+  </si>
+  <si>
+    <t>30,20,15,00</t>
+  </si>
+  <si>
+    <t>00,20,10,00,00</t>
+  </si>
+  <si>
+    <t>00,00,00,00,10,20,20,10,00,00,00,00,00,00,00</t>
+  </si>
+  <si>
+    <t>05,10,20,30</t>
+  </si>
+  <si>
+    <t>20,10,10,30,10,10,05,05,10,00,05,15,10,20,20</t>
+  </si>
+  <si>
+    <t>9681-XC3</t>
+  </si>
+  <si>
+    <t>00,00,00,00,00,30,00,10,00,10,00,00,00,00</t>
+  </si>
+  <si>
+    <t>36189-70533</t>
+  </si>
+  <si>
+    <t>04,04,04,04,04,04,04,04,02,02</t>
+  </si>
+  <si>
+    <t>02,03,03,02,02,03,03,03,02,03</t>
+  </si>
+  <si>
+    <t>25,10,15,25,00,15,10,15,25,00,10,10,25,03</t>
+  </si>
+  <si>
+    <t>00,00,00,00,00,10,10,15,25,00,10,03,10,05</t>
+  </si>
+  <si>
+    <t>10,05,00,10,15</t>
+  </si>
+  <si>
+    <t>00,25,10,20,10,20,10,25,10,05,25,15,25,00,00</t>
+  </si>
+  <si>
+    <t>63590273</t>
+  </si>
+  <si>
+    <t>25,15,25,10,10,25</t>
+  </si>
+  <si>
+    <t>00,20,05,10,15,25</t>
+  </si>
+  <si>
+    <t>00,30,20,10,00</t>
+  </si>
+  <si>
+    <t>00,00,20,10,10,15,20,03,20,15,10,05,00,00</t>
+  </si>
+  <si>
+    <t>00,00,10,10,10,10,10,10,10,10,10,10,00,00</t>
+  </si>
+  <si>
+    <t>00,00,05,25,10,05,15,05,30,02,02,20,00,00</t>
+  </si>
+  <si>
+    <t>00,00,30,20,20,10,05,20,10,10,03,20,00,00</t>
+  </si>
+  <si>
+    <t>00,00,05,20,30,10,20,10,25,05,30,05,25,25,00</t>
+  </si>
+  <si>
+    <t>00,00,15,10,10,15,15,15,25,25,10,10,10,00,00</t>
+  </si>
+  <si>
+    <t>00,03,00,03,30</t>
+  </si>
+  <si>
+    <t>20,05,00,05,10</t>
+  </si>
+  <si>
+    <t>0300650(x2)0300700(x1)</t>
+  </si>
+  <si>
+    <t>0300650(x1)0300700(x1)</t>
+  </si>
+  <si>
+    <t>0301460(x2)0301480(x2)</t>
+  </si>
+  <si>
+    <t>0301564(x2)0301484(x1)</t>
   </si>
 </sst>
 </file>
@@ -514,20 +597,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF90473-8882-48F9-8713-751294C8ACC6}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="61.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -538,260 +625,253 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>123213213213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>232321321321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2132132132132110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
-        <v>312341234124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>21412312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>21412312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>21412312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>21412312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>21412312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>564200479</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2">
-        <v>21412312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2">
-        <v>21412312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
-        <v>21412312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2">
-        <v>21412312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2">
-        <v>21412312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>564200479</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2">
-        <v>21412312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2">
-        <v>21412312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2">
-        <v>21412312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
-        <v>21412312</v>
-      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
